--- a/data/Chanco.xlsx
+++ b/data/Chanco.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Chanco.xlsx
+++ b/data/Chanco.xlsx
@@ -2023,7 +2023,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Compañía General de Electricidad S.A.</t>
+          <t>CGE TRANSMISION S.A.</t>
         </is>
       </c>
       <c r="F35" t="n">

--- a/data/Chanco.xlsx
+++ b/data/Chanco.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J45"/>
+  <dimension ref="A1:J46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE EXPLOTACIÓN ARENAS SILICEAS MINA LOS CARROS 1/18</t>
+          <t>Ampliación de Explotación Arenas Silíceas Mina Los Carros 1/18</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -443,21 +443,21 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1582</v>
+        <v>3500</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>08/09/2021</t>
+          <t>23/01/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153153990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158493889&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Parque Solar Fotovoltaico Playero</t>
+          <t>AMPLIACIÓN DE EXPLOTACIÓN ARENAS SILICEAS MINA LOS CARROS 1/18</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Playero SpA</t>
+          <t>Minera Faro Carranza S.A.</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>13500</v>
+        <v>1582</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>19/03/2019</t>
+          <t>08/09/2021</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142690066&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153153990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -535,7 +535,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>TIKUNA SpA</t>
+          <t>Playero SpA</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -543,17 +543,17 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>20/02/2019</t>
+          <t>19/03/2019</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142527976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142690066&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Mejoramiento Proyecto Mejoramiento Planta de Tratamiento de Aguas Servidas de Chanco</t>
+          <t>Parque Solar Fotovoltaico Playero</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,25 +583,25 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Nuevosur S. A.</t>
+          <t>TIKUNA SpA</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>790</v>
+        <v>13500</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>23/09/2014</t>
+          <t>20/02/2019</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129816074&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142527976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>Mejoramiento Proyecto Mejoramiento Planta de Tratamiento de Aguas Servidas de Chanco</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -626,30 +626,30 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Nuevosur S. A.</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>100</v>
+        <v>790</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>23/09/2014</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129816074&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,15 +679,15 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,15 +727,15 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -745,7 +745,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,15 +775,15 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>08/09/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>12/05/2011</t>
+          <t>08/09/2011</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,15 +871,15 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>22</v>
+        <v>200</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>12/05/2011</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Chanco (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -914,30 +914,30 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Chanco</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>01/02/2008</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2678079&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LA REGIONES VI Y VIII (e-seia)</t>
+          <t>Plan Regulador Comunal de Chanco (e-seia)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -962,30 +962,30 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
+          <t>Ilustre Municipalidad de Chanco</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>11/01/2008</t>
+          <t>01/02/2008</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2630709&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2678079&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LA REGIONES VI Y VIII (e-seia)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,25 +1015,25 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>234</v>
+        <v>100</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>11/01/2008</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2630709&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,15 +1063,15 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,15 +1111,15 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,25 +1159,25 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>16/03/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1211,21 +1211,21 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>16/03/2007</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,25 +1255,25 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1311,17 +1311,17 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,25 +1351,25 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>12/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,25 +1399,25 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>12/12/2006</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1455,17 +1455,17 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,25 +1495,25 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1551,17 +1551,17 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,15 +1591,15 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>22</v>
+        <v>4000</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>28/12/2005</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,25 +1639,25 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>28/12/2005</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,25 +1687,25 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Sociedad de Representaciones Ltda.</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>20/10/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,15 +1735,15 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Sociedad de Representaciones Ltda.</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>20/10/2005</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,15 +1783,15 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>05/05/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1839,17 +1839,17 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>09/03/2005</t>
+          <t>05/05/2005</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>PLAN REGIONAL DE DESARROLLO URBANO Y TERRITORIAL, REGION DEL MAULE. (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1874,30 +1874,30 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Bienes Nacionales, Región del Maule</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>17/01/2005</t>
+          <t>09/03/2005</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=561657&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas de Chanco (e-seia)</t>
+          <t>PLAN REGIONAL DE DESARROLLO URBANO Y TERRITORIAL, REGION DEL MAULE. (e-seia)</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1927,15 +1927,15 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Nuevosur S. A.</t>
+          <t>SEREMI de Vivienda y Bienes Nacionales, Región del Maule</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>990</v>
+        <v>0</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>07/10/2004</t>
+          <t>17/01/2005</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=472463&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=561657&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Relleno Sanitario de Chanco (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Servidas de Chanco (e-seia)</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1975,15 +1975,15 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Sociedad Constructora Alfonso Meza Meza Ltda.</t>
+          <t>Nuevosur S. A.</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1</v>
+        <v>990</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>13/08/2004</t>
+          <t>07/10/2004</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=420876&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=472463&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica y Subestaciones Eléctricas VII Región</t>
+          <t>Relleno Sanitario de Chanco (e-seia)</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2023,15 +2023,15 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>CGE TRANSMISION S.A.</t>
+          <t>Sociedad Constructora Alfonso Meza Meza Ltda.</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>24/06/2002</t>
+          <t>13/08/2004</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5527&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=420876&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Vertedero de Chanco</t>
+          <t>Línea de Transmisión Eléctrica y Subestaciones Eléctricas VII Región</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2071,25 +2071,25 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Alfonso Patricio Meza Meza</t>
+          <t>CGE TRANSMISION S.A.</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>21/02/2002</t>
+          <t>24/06/2002</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5127&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5527&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Plan Regulador Intercomunal Cauquenes-Chanco- Pelluhue.</t>
+          <t>Vertedero de Chanco</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2119,25 +2119,25 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo, Región del Maule</t>
+          <t>Alfonso Patricio Meza Meza</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>14/02/2002</t>
+          <t>21/02/2002</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5092&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5127&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Explotación Arenas Silícicas-Pertenencias Loanco 9-1 al 5</t>
+          <t>Plan Regulador Intercomunal Cauquenes-Chanco- Pelluhue.</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2167,15 +2167,15 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Minera Faro Carranza S.A.</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo, Región del Maule</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>26/07/2001</t>
+          <t>14/02/2002</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2185,7 +2185,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4154&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5092&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Vertedero Para Residuos Domiciliarios Chanco Fundo Mira Mar</t>
+          <t>Explotación Arenas Silícicas-Pertenencias Loanco 9-1 al 5</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2215,25 +2215,25 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Alfonso Patricio Meza Meza</t>
+          <t>Minera Faro Carranza S.A.</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>07/06/2001</t>
+          <t>26/07/2001</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3955&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4154&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Discotheque Supernova</t>
+          <t>Vertedero Para Residuos Domiciliarios Chanco Fundo Mira Mar</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2263,25 +2263,25 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Alejandra Millaray Araya Yevenes</t>
+          <t>Alfonso Patricio Meza Meza</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>20/10/1999</t>
+          <t>07/06/2001</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2357&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3955&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Reposición con Reubicación y Equipamiento Escuela E. Vásquez G. Huichahue</t>
+          <t>Discotheque Supernova</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2311,25 +2311,25 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Chanco</t>
+          <t>Alejandra Millaray Araya Yevenes</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>280</v>
+        <v>0</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>06/07/1999</t>
+          <t>20/10/1999</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2115&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2357&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Explotación de Arenas Silícicas Pertenencias San Gonzalo 01 al 06 Comuna de Chanco</t>
+          <t>Reposición con Reubicación y Equipamiento Escuela E. Vásquez G. Huichahue</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2359,25 +2359,25 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Minera Faro Carranza S.A.</t>
+          <t>I. Municipalidad de Chanco</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>80</v>
+        <v>280</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>20/05/1999</t>
+          <t>06/07/1999</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2115&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Explotación de Arenas Silícicas de las Pertenencias Ataliel 2-1 al 20</t>
+          <t>Explotación de Arenas Silícicas Pertenencias San Gonzalo 01 al 06 Comuna de Chanco</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,15 +2407,15 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Sociedad Industrial Pizarreño S.A.</t>
+          <t>Minera Faro Carranza S.A.</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>21/10/1998</t>
+          <t>20/05/1999</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1401&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Construcción Infraestructura Administrativa Reserva Nacional Federico Albert</t>
+          <t>Explotación de Arenas Silícicas de las Pertenencias Ataliel 2-1 al 20</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,15 +2455,15 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal, CONAF</t>
+          <t>Sociedad Industrial Pizarreño S.A.</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>14/07/1997</t>
+          <t>21/10/1998</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=287&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1401&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,43 +2488,91 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
+          <t>Construcción Infraestructura Administrativa Reserva Nacional Federico Albert</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Séptima</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Corporación Nacional Forestal, CONAF</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>50</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>14/07/1997</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=287&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Chanco</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
           <t>Construcción Guardería Reserva Nacional Los Ruiles</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>Séptima</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>Corporación Nacional Forestal, CONAF</t>
         </is>
       </c>
-      <c r="F45" t="n">
+      <c r="F46" t="n">
         <v>40</v>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>14/07/1997</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I45" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=991&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J45" t="inlineStr">
+      <c r="J46" t="inlineStr">
         <is>
           <t>Chanco</t>
         </is>

--- a/data/Chanco.xlsx
+++ b/data/Chanco.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>23/01/2023</t>
+          <t>30/01/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
